--- a/portfolio/calculator.xlsx
+++ b/portfolio/calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/finance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B987D5-0320-3841-830C-41FA501624B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9901F298-A40D-1949-B94C-6B1F431B0D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="540" windowWidth="25600" windowHeight="13420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="复利" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="期权" sheetId="4" r:id="rId6"/>
     <sheet name="房产计算" sheetId="1" r:id="rId7"/>
     <sheet name="贝叶斯" sheetId="8" r:id="rId8"/>
+    <sheet name="BTC" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="threashold" localSheetId="2">指数阈值!$A$1:$H$59</definedName>
@@ -33,8 +34,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -60,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="550">
   <si>
     <t>Fv = Pv (1 + i) ^ n</t>
   </si>
@@ -185,12 +189,6 @@
     <t>认购期权</t>
   </si>
   <si>
-    <t>期权买方权益</t>
-  </si>
-  <si>
-    <t>期权卖方权益</t>
-  </si>
-  <si>
     <t>认沽期权</t>
   </si>
   <si>
@@ -216,12 +214,6 @@
   </si>
   <si>
     <t>max (行权价 - 市价, 0) - 权利金</t>
-  </si>
-  <si>
-    <t>min(市价 - 行权价, 0) + 权利金</t>
-  </si>
-  <si>
-    <t>min(行权价 - 市价, 0) + 权利金</t>
   </si>
   <si>
     <t>设</t>
@@ -1681,6 +1673,72 @@
   </si>
   <si>
     <t>太极转债</t>
+  </si>
+  <si>
+    <t>认购 (看涨) 期权</t>
+  </si>
+  <si>
+    <t>认沽 (看跌) 期权</t>
+  </si>
+  <si>
+    <t>买方权益 call</t>
+  </si>
+  <si>
+    <t>买方权益 put</t>
+  </si>
+  <si>
+    <t>卖方权益 call</t>
+  </si>
+  <si>
+    <t>卖方权益 put</t>
+  </si>
+  <si>
+    <t>min(0, 行权价 - 市价) + 权利金</t>
+  </si>
+  <si>
+    <t>min(0, 市价 - 行权价) + 权利金</t>
+  </si>
+  <si>
+    <t>2009-2012</t>
+  </si>
+  <si>
+    <t>2017-2020</t>
+  </si>
+  <si>
+    <t>2013-2016</t>
+  </si>
+  <si>
+    <t>2021-2024</t>
+  </si>
+  <si>
+    <t>2025-2028</t>
+  </si>
+  <si>
+    <t>2029-2032</t>
+  </si>
+  <si>
+    <t>2033-2036</t>
+  </si>
+  <si>
+    <t>2037-2040</t>
+  </si>
+  <si>
+    <t>2041-2044</t>
+  </si>
+  <si>
+    <t>每10分钟产量</t>
+  </si>
+  <si>
+    <t>区间</t>
+  </si>
+  <si>
+    <t>区间产量</t>
+  </si>
+  <si>
+    <t>每四年缩减一半</t>
+  </si>
+  <si>
+    <t>累计产量</t>
   </si>
 </sst>
 </file>
@@ -1693,7 +1751,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1753,6 +1811,12 @@
       <sz val="14"/>
       <name val="Monaco"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1847,7 +1911,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2135,7 +2199,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2299,12 +2363,12 @@
     </row>
     <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B11" s="3">
         <v>100</v>
@@ -2322,7 +2386,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B12" s="8">
         <f>C12/(1+D12*E12)</f>
@@ -2343,7 +2407,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2378,7 +2442,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B16" s="1">
         <f>1/(10-B15+1)</f>
@@ -2453,119 +2517,119 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B14" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C14" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C15" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D19" t="s">
+        <v>360</v>
+      </c>
+      <c r="E19" t="s">
+        <v>361</v>
+      </c>
+      <c r="F19" t="s">
         <v>362</v>
-      </c>
-      <c r="D19" t="s">
-        <v>364</v>
-      </c>
-      <c r="E19" t="s">
-        <v>365</v>
-      </c>
-      <c r="F19" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2869,27 +2933,27 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2900,7 +2964,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B41">
         <v>1657.7</v>
@@ -2908,7 +2972,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B42">
         <v>2022</v>
@@ -2916,7 +2980,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2924,7 +2988,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -2944,7 +3008,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B45" s="18">
         <f>$B$41 * 1.1^($B$42-2011) * (1+($B$43-1)/120) / 0.8^(5-B44)</f>
@@ -2969,7 +3033,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B46">
         <v>5568</v>
@@ -3012,42 +3076,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1" t="s">
         <v>178</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>179</v>
       </c>
-      <c r="D1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" t="s">
-        <v>183</v>
-      </c>
       <c r="I1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D2" s="6">
         <v>0.1</v>
@@ -3071,13 +3135,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D3" s="6">
         <v>0.1</v>
@@ -3101,13 +3165,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D4" s="6">
         <v>0.1</v>
@@ -3132,13 +3196,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D5" s="6">
         <v>0.1</v>
@@ -3162,13 +3226,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D6" s="6">
         <v>0.1</v>
@@ -3193,13 +3257,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D7" s="6">
         <v>0.1</v>
@@ -3224,13 +3288,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D8" s="6">
         <v>0.1</v>
@@ -3255,13 +3319,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D9" s="6">
         <v>0.1</v>
@@ -3286,13 +3350,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D10" s="6">
         <v>0.1</v>
@@ -3317,13 +3381,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D11" s="6">
         <v>0.1</v>
@@ -3352,38 +3416,38 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" t="s">
         <v>178</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" t="s">
         <v>179</v>
-      </c>
-      <c r="D13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E13" t="s">
-        <v>181</v>
-      </c>
-      <c r="F13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" t="s">
-        <v>183</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D14">
         <v>0.9</v>
@@ -3408,13 +3472,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D15">
         <v>1.6</v>
@@ -3439,13 +3503,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D16">
         <v>1.6</v>
@@ -3470,13 +3534,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D17">
         <v>2.6</v>
@@ -3501,13 +3565,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D18">
         <v>2.2999999999999998</v>
@@ -3526,13 +3590,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D19">
         <v>1.1000000000000001</v>
@@ -3551,13 +3615,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D20">
         <v>1.8</v>
@@ -3576,10 +3640,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D21">
         <v>0.55000000000000004</v>
@@ -3596,38 +3660,38 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B23" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" t="s">
         <v>178</v>
       </c>
-      <c r="C23" t="s">
+      <c r="G23" t="s">
         <v>179</v>
-      </c>
-      <c r="D23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E23" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" t="s">
-        <v>182</v>
-      </c>
-      <c r="G23" t="s">
-        <v>183</v>
       </c>
       <c r="I23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D24">
         <v>14</v>
@@ -3646,13 +3710,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C25" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D25">
         <v>13</v>
@@ -3671,13 +3735,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D26">
         <v>24</v>
@@ -3696,13 +3760,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D27">
         <v>25</v>
@@ -3721,13 +3785,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D28">
         <v>11</v>
@@ -3753,13 +3817,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C29" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D29">
         <v>21</v>
@@ -3779,13 +3843,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C30" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D30">
         <v>25</v>
@@ -3805,13 +3869,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C31" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D31">
         <v>18</v>
@@ -3831,13 +3895,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D32">
         <v>28</v>
@@ -3857,13 +3921,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D33">
         <v>55</v>
@@ -3889,13 +3953,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C34" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D34">
         <v>57</v>
@@ -3921,13 +3985,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D35">
         <v>30</v>
@@ -3947,13 +4011,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D36">
         <v>30</v>
@@ -3973,13 +4037,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C37" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D37">
         <v>30</v>
@@ -3999,13 +4063,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C38" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D38">
         <v>18</v>
@@ -4031,13 +4095,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D39">
         <v>2.2000000000000002</v>
@@ -4057,13 +4121,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D40">
         <v>25</v>
@@ -4083,13 +4147,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D41">
         <v>24</v>
@@ -4109,13 +4173,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D42">
         <v>33</v>
@@ -4135,13 +4199,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C43" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D43">
         <v>15</v>
@@ -4161,13 +4225,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C44" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D44">
         <v>17</v>
@@ -4187,13 +4251,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D45">
         <v>18</v>
@@ -4219,13 +4283,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C46" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D46">
         <v>15</v>
@@ -4245,13 +4309,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D47">
         <v>20</v>
@@ -4277,13 +4341,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C48" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D48">
         <v>15</v>
@@ -4309,13 +4373,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C49" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D49">
         <v>21</v>
@@ -4341,13 +4405,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C50" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D50">
         <v>21</v>
@@ -4373,13 +4437,13 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D51">
         <v>21</v>
@@ -4405,13 +4469,13 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C52" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D52">
         <v>12</v>
@@ -4429,13 +4493,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C53" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D53">
         <v>5.6</v>
@@ -4459,13 +4523,13 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C54" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D54">
         <v>11</v>
@@ -4489,13 +4553,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D55">
         <v>13</v>
@@ -4512,13 +4576,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D56">
         <v>26</v>
@@ -4535,13 +4599,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C57" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D57">
         <v>50</v>
@@ -4558,13 +4622,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C58" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D58">
         <v>17</v>
@@ -4611,7 +4675,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -4619,13 +4683,13 @@
         <v>39</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E2" s="13">
         <v>100</v>
@@ -4636,10 +4700,10 @@
         <v>34</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14">
@@ -4651,13 +4715,13 @@
         <v>35</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E4" s="14">
         <f>100/E3</f>
@@ -4666,13 +4730,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14">
@@ -4684,13 +4748,13 @@
         <v>37</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E6" s="14">
         <f>E4*E5</f>
@@ -4699,34 +4763,34 @@
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13">
         <v>107.544</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E8" s="14">
         <f>E7-E6</f>
@@ -4738,13 +4802,13 @@
         <v>36</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E9" s="16">
         <f>E8/E6</f>
@@ -4753,16 +4817,16 @@
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E10" s="14">
         <f>E7+E9*100</f>
@@ -4771,15 +4835,15 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>319</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>323</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -4787,10 +4851,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D14">
         <v>2.16</v>
@@ -4798,10 +4862,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>318</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>322</v>
       </c>
       <c r="D15" s="6">
         <v>0.95</v>
@@ -4809,10 +4873,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D16">
         <v>164.2</v>
@@ -4820,10 +4884,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D17">
         <v>105</v>
@@ -4831,13 +4895,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D18">
         <f>D16*D15+D17*(1-D15)-D13</f>
@@ -4846,13 +4910,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" t="s">
         <v>326</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C19" t="s">
-        <v>330</v>
       </c>
       <c r="D19" s="1">
         <f>D18/D13/D14</f>
@@ -4940,8 +5004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDC7B8B-DB21-EB49-B4A8-8BEBC5ED15A7}">
   <dimension ref="A2:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="113" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView topLeftCell="A63" zoomScale="113" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4961,28 +5025,28 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" t="s">
         <v>354</v>
       </c>
-      <c r="B2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>355</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>356</v>
-      </c>
-      <c r="E2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4993,11 +5057,11 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <f>E4</f>
+        <f t="shared" ref="G3:G12" si="0">E4</f>
         <v>1000</v>
       </c>
       <c r="H3">
-        <f>B3*G3</f>
+        <f t="shared" ref="H3:H12" si="1">B3*G3</f>
         <v>11000</v>
       </c>
     </row>
@@ -5019,15 +5083,15 @@
         <v>1000</v>
       </c>
       <c r="F4">
-        <f>E4*B4</f>
+        <f t="shared" ref="F4:F13" si="2">E4*B4</f>
         <v>10000</v>
       </c>
       <c r="G4">
-        <f>E5</f>
+        <f t="shared" si="0"/>
         <v>1100</v>
       </c>
       <c r="H4">
-        <f>B4*G4</f>
+        <f t="shared" si="1"/>
         <v>11000</v>
       </c>
     </row>
@@ -5049,15 +5113,15 @@
         <v>1100</v>
       </c>
       <c r="F5">
-        <f>E5*B5</f>
+        <f t="shared" si="2"/>
         <v>9900</v>
       </c>
       <c r="G5">
-        <f>E6</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="H5">
-        <f>B5*G5</f>
+        <f t="shared" si="1"/>
         <v>10800</v>
       </c>
     </row>
@@ -5075,19 +5139,19 @@
         <v>10000</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E13" si="0">INT(D6/B6/100)*100</f>
+        <f t="shared" ref="E6:E13" si="3">INT(D6/B6/100)*100</f>
         <v>1200</v>
       </c>
       <c r="F6">
-        <f>E6*B6</f>
+        <f t="shared" si="2"/>
         <v>9720</v>
       </c>
       <c r="G6">
-        <f>E7</f>
+        <f t="shared" si="0"/>
         <v>1300</v>
       </c>
       <c r="H6">
-        <f>B6*G6</f>
+        <f t="shared" si="1"/>
         <v>10530</v>
       </c>
     </row>
@@ -5105,19 +5169,19 @@
         <v>10000</v>
       </c>
       <c r="E7">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>9477</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>1300</v>
-      </c>
-      <c r="F7">
-        <f>E7*B7</f>
-        <v>9477</v>
-      </c>
-      <c r="G7">
-        <f>E8</f>
         <v>1500</v>
       </c>
       <c r="H7">
-        <f>B7*G7</f>
+        <f t="shared" si="1"/>
         <v>10935</v>
       </c>
     </row>
@@ -5135,19 +5199,19 @@
         <v>10000</v>
       </c>
       <c r="E8">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>9975</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="F8">
-        <f>E8*B8</f>
-        <v>9975</v>
-      </c>
-      <c r="G8">
-        <f>E9</f>
         <v>1600</v>
       </c>
       <c r="H8">
-        <f>B8*G8</f>
+        <f t="shared" si="1"/>
         <v>10640</v>
       </c>
     </row>
@@ -5165,19 +5229,19 @@
         <v>10000</v>
       </c>
       <c r="E9">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>9440</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="F9">
-        <f>E9*B9</f>
-        <v>9440</v>
-      </c>
-      <c r="G9">
-        <f>E10</f>
         <v>1800</v>
       </c>
       <c r="H9">
-        <f>B9*G9</f>
+        <f t="shared" si="1"/>
         <v>10620</v>
       </c>
     </row>
@@ -5195,19 +5259,19 @@
         <v>10000</v>
       </c>
       <c r="E10">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>9558</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-      <c r="F10">
-        <f>E10*B10</f>
-        <v>9558</v>
-      </c>
-      <c r="G10">
-        <f>E11</f>
         <v>2000</v>
       </c>
       <c r="H10">
-        <f>B10*G10</f>
+        <f t="shared" si="1"/>
         <v>10620</v>
       </c>
     </row>
@@ -5225,19 +5289,19 @@
         <v>10000</v>
       </c>
       <c r="E11">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>9560</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="F11">
-        <f>E11*B11</f>
-        <v>9560</v>
-      </c>
-      <c r="G11">
-        <f>E12</f>
         <v>2300</v>
       </c>
       <c r="H11">
-        <f>B11*G11</f>
+        <f t="shared" si="1"/>
         <v>10994</v>
       </c>
     </row>
@@ -5255,19 +5319,19 @@
         <v>10000</v>
       </c>
       <c r="E12">
+        <f t="shared" si="3"/>
+        <v>2300</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>9660</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
-        <v>2300</v>
-      </c>
-      <c r="F12">
-        <f>E12*B12</f>
-        <v>9660</v>
-      </c>
-      <c r="G12">
-        <f>E13</f>
         <v>2500</v>
       </c>
       <c r="H12">
-        <f>B12*G12</f>
+        <f t="shared" si="1"/>
         <v>10500</v>
       </c>
     </row>
@@ -5285,17 +5349,17 @@
         <v>10000</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2500</v>
       </c>
       <c r="F13">
-        <f>E13*B13</f>
+        <f t="shared" si="2"/>
         <v>9675</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F14">
         <f>SUM(F4:F13)</f>
@@ -5308,7 +5372,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -5316,36 +5380,36 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B18" t="s">
+        <v>418</v>
+      </c>
+      <c r="C18" t="s">
+        <v>421</v>
+      </c>
+      <c r="D18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E18" t="s">
+        <v>420</v>
+      </c>
+      <c r="F18" t="s">
         <v>422</v>
       </c>
-      <c r="C18" t="s">
-        <v>425</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="G18" t="s">
         <v>423</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>424</v>
       </c>
-      <c r="F18" t="s">
-        <v>426</v>
-      </c>
-      <c r="G18" t="s">
-        <v>427</v>
-      </c>
-      <c r="H18" t="s">
-        <v>428</v>
-      </c>
       <c r="I18" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B19">
         <v>1.1759999999999999</v>
@@ -5376,12 +5440,12 @@
         <v>3.2849162011173182E-2</v>
       </c>
       <c r="J19" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B20">
         <v>2.2919999999999998</v>
@@ -5412,7 +5476,7 @@
         <v>5.5124050632911412E-2</v>
       </c>
       <c r="J20" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -5426,7 +5490,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B22">
         <v>1.51</v>
@@ -5459,45 +5523,45 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24" t="s">
+        <v>385</v>
+      </c>
+      <c r="C24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E24" t="s">
+        <v>373</v>
+      </c>
+      <c r="F24" t="s">
+        <v>425</v>
+      </c>
+      <c r="G24" t="s">
         <v>376</v>
       </c>
-      <c r="B24" t="s">
-        <v>389</v>
-      </c>
-      <c r="C24" t="s">
-        <v>390</v>
-      </c>
-      <c r="D24" t="s">
-        <v>418</v>
-      </c>
-      <c r="E24" t="s">
-        <v>377</v>
-      </c>
-      <c r="F24" t="s">
-        <v>429</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>380</v>
       </c>
-      <c r="H24" t="s">
-        <v>384</v>
-      </c>
       <c r="I24" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J24" t="s">
+        <v>375</v>
+      </c>
+      <c r="K24" t="s">
         <v>379</v>
       </c>
-      <c r="K24" t="s">
-        <v>383</v>
-      </c>
       <c r="L24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B25" s="22">
         <f>H19</f>
@@ -5512,7 +5576,7 @@
         <v>1.3139664804469273</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F25" s="18">
         <v>1000</v>
@@ -5526,7 +5590,7 @@
         <v>3.2849162011173182E-3</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J25" s="22">
         <f>I19</f>
@@ -5537,12 +5601,12 @@
         <v>-3.2849162011173182E-3</v>
       </c>
       <c r="L25" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B26" s="22">
         <f>H20</f>
@@ -5557,7 +5621,7 @@
         <v>2.5821265822784807</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F26" s="18">
         <v>1000</v>
@@ -5571,7 +5635,7 @@
         <v>5.5124050632911412E-3</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J26" s="22">
         <f>I20</f>
@@ -5582,7 +5646,7 @@
         <v>-5.5124050632911412E-3</v>
       </c>
       <c r="L26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -5599,24 +5663,24 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B28" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C28" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D28" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E28" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B29">
         <v>512880</v>
@@ -5633,7 +5697,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B30">
         <v>512910</v>
@@ -5650,7 +5714,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B31">
         <v>159905</v>
@@ -5667,7 +5731,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B32">
         <v>510310</v>
@@ -5684,45 +5748,45 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B35" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C35" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D35" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E35" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G35" t="s">
+        <v>376</v>
+      </c>
+      <c r="H35" t="s">
         <v>380</v>
       </c>
-      <c r="H35" t="s">
-        <v>384</v>
-      </c>
       <c r="I35" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J35" t="s">
+        <v>375</v>
+      </c>
+      <c r="K35" t="s">
         <v>379</v>
       </c>
-      <c r="K35" t="s">
-        <v>383</v>
-      </c>
       <c r="L35" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -5739,7 +5803,7 @@
         <v>1.32</v>
       </c>
       <c r="E36" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F36">
         <v>5000</v>
@@ -5751,7 +5815,7 @@
         <v>1E-3</v>
       </c>
       <c r="I36" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J36">
         <v>0.03</v>
@@ -5760,26 +5824,26 @@
         <v>-1E-3</v>
       </c>
       <c r="L36" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>408</v>
+      </c>
+      <c r="B39" t="s">
+        <v>409</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="B39" t="s">
-        <v>413</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>416</v>
-      </c>
       <c r="D39" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -5790,7 +5854,7 @@
         <v>-0.01</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -5798,21 +5862,21 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
       <c r="F43" s="25" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
@@ -5820,57 +5884,57 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="B44" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>396</v>
-      </c>
       <c r="C44" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="I44" s="25" t="s">
         <v>397</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C46" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G46" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H46" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -5923,11 +5987,11 @@
         <v>50</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49:D51" si="1">C49*A49</f>
+        <f t="shared" ref="D49:D51" si="4">C49*A49</f>
         <v>100</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E51" si="2">B49*C49</f>
+        <f t="shared" ref="E49:E51" si="5">B49*C49</f>
         <v>1500</v>
       </c>
       <c r="F49">
@@ -5939,7 +6003,7 @@
         <v>-250</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" ref="H49:H51" si="3">G49/F49</f>
+        <f t="shared" ref="H49:H51" si="6">G49/F49</f>
         <v>-7.6923076923076927E-2</v>
       </c>
     </row>
@@ -5954,11 +6018,11 @@
         <v>50</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1250</v>
       </c>
       <c r="F50">
@@ -5970,7 +6034,7 @@
         <v>-750</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.16666666666666666</v>
       </c>
     </row>
@@ -5985,11 +6049,11 @@
         <v>50</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="F51">
@@ -6001,46 +6065,46 @@
         <v>-1500</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.27272727272727271</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>372</v>
+      </c>
+      <c r="B53" t="s">
+        <v>385</v>
+      </c>
+      <c r="C53" t="s">
+        <v>386</v>
+      </c>
+      <c r="D53" t="s">
+        <v>414</v>
+      </c>
+      <c r="E53" t="s">
+        <v>373</v>
+      </c>
+      <c r="F53" t="s">
+        <v>425</v>
+      </c>
+      <c r="G53" t="s">
         <v>376</v>
       </c>
-      <c r="B53" t="s">
-        <v>389</v>
-      </c>
-      <c r="C53" t="s">
-        <v>390</v>
-      </c>
-      <c r="D53" t="s">
-        <v>418</v>
-      </c>
-      <c r="E53" t="s">
-        <v>377</v>
-      </c>
-      <c r="F53" t="s">
-        <v>429</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>380</v>
       </c>
-      <c r="H53" t="s">
-        <v>384</v>
-      </c>
       <c r="I53" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J53" t="s">
+        <v>375</v>
+      </c>
+      <c r="K53" t="s">
         <v>379</v>
       </c>
-      <c r="K53" t="s">
-        <v>383</v>
-      </c>
       <c r="L53" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -6051,10 +6115,10 @@
         <v>130</v>
       </c>
       <c r="D54" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E54" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F54">
         <v>10</v>
@@ -6067,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J54">
         <v>10</v>
@@ -6077,7 +6141,7 @@
         <v>-1</v>
       </c>
       <c r="L54" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -6085,63 +6149,63 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B56" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C56" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D56" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E56" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F56" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G56" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H56" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B57" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C57" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J57" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K57" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L57" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -6152,13 +6216,13 @@
         <v>165</v>
       </c>
       <c r="J58" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K58" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L58" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -6192,10 +6256,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K59" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L59">
         <v>40</v>
@@ -6212,11 +6276,11 @@
         <v>80</v>
       </c>
       <c r="D60">
-        <f t="shared" ref="D60:D62" si="4">C60*A60</f>
+        <f t="shared" ref="D60:D62" si="7">C60*A60</f>
         <v>160</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60:E62" si="5">B60*C60</f>
+        <f t="shared" ref="E60:E62" si="8">B60*C60</f>
         <v>11600</v>
       </c>
       <c r="F60">
@@ -6228,7 +6292,7 @@
         <v>-800</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" ref="H60:H62" si="6">G60/F60</f>
+        <f t="shared" ref="H60:H62" si="9">G60/F60</f>
         <v>-3.3333333333333333E-2</v>
       </c>
     </row>
@@ -6243,11 +6307,11 @@
         <v>80</v>
       </c>
       <c r="D61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="E61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10800</v>
       </c>
       <c r="F61">
@@ -6259,7 +6323,7 @@
         <v>-2400</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-6.8965517241379309E-2</v>
       </c>
     </row>
@@ -6274,11 +6338,11 @@
         <v>80</v>
       </c>
       <c r="D62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="E62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
       <c r="F62">
@@ -6290,7 +6354,7 @@
         <v>-4800</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-0.10714285714285714</v>
       </c>
     </row>
@@ -6299,63 +6363,63 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B64" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C64" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D64" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E64" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F64" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G64" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H64" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B65" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C65" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J65" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K65" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L65" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -6366,13 +6430,13 @@
         <v>170</v>
       </c>
       <c r="J66" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K66" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L66" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -6406,10 +6470,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K67" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L67">
         <v>40</v>
@@ -6426,11 +6490,11 @@
         <v>50</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D70" si="7">C68*A68</f>
+        <f t="shared" ref="D68:D70" si="10">C68*A68</f>
         <v>100</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E70" si="8">B68*C68</f>
+        <f t="shared" ref="E68:E70" si="11">B68*C68</f>
         <v>7500</v>
       </c>
       <c r="F68">
@@ -6442,7 +6506,7 @@
         <v>-500</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" ref="H68:H70" si="9">G68/F68</f>
+        <f t="shared" ref="H68:H70" si="12">G68/F68</f>
         <v>-3.2258064516129031E-2</v>
       </c>
     </row>
@@ -6457,11 +6521,11 @@
         <v>50</v>
       </c>
       <c r="D69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="E69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7000</v>
       </c>
       <c r="F69">
@@ -6473,7 +6537,7 @@
         <v>-1500</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-6.6666666666666666E-2</v>
       </c>
     </row>
@@ -6488,11 +6552,11 @@
         <v>50</v>
       </c>
       <c r="D70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="E70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6500</v>
       </c>
       <c r="F70">
@@ -6504,7 +6568,7 @@
         <v>-3000</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.10344827586206896</v>
       </c>
     </row>
@@ -6513,7 +6577,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B72">
         <v>123012</v>
@@ -6521,37 +6585,37 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B73" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C73" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J73" t="s">
+        <v>441</v>
+      </c>
+      <c r="K73" t="s">
+        <v>410</v>
+      </c>
+      <c r="L73" t="s">
         <v>445</v>
-      </c>
-      <c r="K73" t="s">
-        <v>414</v>
-      </c>
-      <c r="L73" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -6562,13 +6626,13 @@
         <v>200</v>
       </c>
       <c r="J74" t="s">
+        <v>442</v>
+      </c>
+      <c r="K74" t="s">
+        <v>447</v>
+      </c>
+      <c r="L74" t="s">
         <v>446</v>
-      </c>
-      <c r="K74" t="s">
-        <v>451</v>
-      </c>
-      <c r="L74" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -6602,10 +6666,10 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K75" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L75">
         <v>30</v>
@@ -6622,11 +6686,11 @@
         <v>30</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76:D78" si="10">C76*A76</f>
+        <f t="shared" ref="D76:D78" si="13">C76*A76</f>
         <v>60</v>
       </c>
       <c r="E76">
-        <f t="shared" ref="E76:E78" si="11">B76*C76</f>
+        <f t="shared" ref="E76:E78" si="14">B76*C76</f>
         <v>5400</v>
       </c>
       <c r="F76">
@@ -6638,7 +6702,7 @@
         <v>-300</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" ref="H76:H78" si="12">G76/F76</f>
+        <f t="shared" ref="H76:H78" si="15">G76/F76</f>
         <v>-2.7027027027027029E-2</v>
       </c>
     </row>
@@ -6653,11 +6717,11 @@
         <v>30</v>
       </c>
       <c r="D77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="E77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5100</v>
       </c>
       <c r="F77">
@@ -6669,7 +6733,7 @@
         <v>-900</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
@@ -6684,11 +6748,11 @@
         <v>30</v>
       </c>
       <c r="D78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>120</v>
       </c>
       <c r="E78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4800</v>
       </c>
       <c r="F78">
@@ -6700,7 +6764,7 @@
         <v>-1800</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-8.5714285714285715E-2</v>
       </c>
     </row>
@@ -6712,45 +6776,45 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B81" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B82" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C82" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J82" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K82" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L82" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -6761,16 +6825,16 @@
         <v>175</v>
       </c>
       <c r="J83" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K83" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L83" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M83" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -6804,10 +6868,10 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K84" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L84">
         <v>40</v>
@@ -6898,11 +6962,11 @@
         <v>40</v>
       </c>
       <c r="D87">
-        <f t="shared" ref="D87" si="13">C87*A87</f>
+        <f t="shared" ref="D87" si="16">C87*A87</f>
         <v>160</v>
       </c>
       <c r="E87">
-        <f t="shared" ref="E87:E88" si="14">B87*C87</f>
+        <f t="shared" ref="E87:E88" si="17">B87*C87</f>
         <v>5400</v>
       </c>
       <c r="F87">
@@ -6914,7 +6978,7 @@
         <v>-2400</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" ref="H87" si="15">G87/F87</f>
+        <f t="shared" ref="H87" si="18">G87/F87</f>
         <v>-0.1</v>
       </c>
     </row>
@@ -6933,7 +6997,7 @@
         <v>200</v>
       </c>
       <c r="E88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="F88">
@@ -6954,40 +7018,40 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>372</v>
+      </c>
+      <c r="B91" t="s">
+        <v>385</v>
+      </c>
+      <c r="C91" t="s">
+        <v>386</v>
+      </c>
+      <c r="D91" t="s">
+        <v>414</v>
+      </c>
+      <c r="E91" t="s">
+        <v>373</v>
+      </c>
+      <c r="F91" t="s">
+        <v>425</v>
+      </c>
+      <c r="G91" t="s">
+        <v>375</v>
+      </c>
+      <c r="H91" t="s">
+        <v>379</v>
+      </c>
+      <c r="I91" t="s">
+        <v>381</v>
+      </c>
+      <c r="J91" t="s">
         <v>376</v>
       </c>
-      <c r="B91" t="s">
-        <v>389</v>
-      </c>
-      <c r="C91" t="s">
-        <v>390</v>
-      </c>
-      <c r="D91" t="s">
-        <v>418</v>
-      </c>
-      <c r="E91" t="s">
-        <v>377</v>
-      </c>
-      <c r="F91" t="s">
-        <v>429</v>
-      </c>
-      <c r="G91" t="s">
-        <v>379</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="K91" t="s">
+        <v>380</v>
+      </c>
+      <c r="L91" t="s">
         <v>383</v>
-      </c>
-      <c r="I91" t="s">
-        <v>385</v>
-      </c>
-      <c r="J91" t="s">
-        <v>380</v>
-      </c>
-      <c r="K91" t="s">
-        <v>384</v>
-      </c>
-      <c r="L91" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -7004,7 +7068,7 @@
         <v>170</v>
       </c>
       <c r="E92" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F92">
         <v>30</v>
@@ -7017,7 +7081,7 @@
         <v>-1</v>
       </c>
       <c r="I92" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J92">
         <v>-10</v>
@@ -7027,7 +7091,7 @@
         <v>1</v>
       </c>
       <c r="L92" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -7044,7 +7108,7 @@
         <v>200</v>
       </c>
       <c r="E93" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F93">
         <v>30</v>
@@ -7057,7 +7121,7 @@
         <v>-1</v>
       </c>
       <c r="I93" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J93">
         <v>-10</v>
@@ -7067,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -7085,7 +7149,7 @@
         <v>120</v>
       </c>
       <c r="E94" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F94">
         <v>30</v>
@@ -7098,7 +7162,7 @@
         <v>-0.5</v>
       </c>
       <c r="I94" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J94">
         <v>-5</v>
@@ -7108,7 +7172,7 @@
         <v>0.5</v>
       </c>
       <c r="L94" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -7117,10 +7181,10 @@
     <row r="98" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="26"/>
       <c r="B98" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D98">
         <v>130</v>
@@ -7138,10 +7202,10 @@
     <row r="99" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="26"/>
       <c r="B99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D99">
         <v>130</v>
@@ -7156,7 +7220,7 @@
         <v>146.67099999999999</v>
       </c>
       <c r="H99">
-        <f>TRUNC((D99+40-G99)/10) * 80 - E99</f>
+        <f t="shared" ref="H99:H107" si="19">TRUNC((D99+40-G99)/10) * 80 - E99</f>
         <v>0</v>
       </c>
       <c r="I99">
@@ -7167,10 +7231,10 @@
     <row r="100" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="26"/>
       <c r="B100" t="s">
+        <v>501</v>
+      </c>
+      <c r="C100" s="28" t="s">
         <v>505</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>509</v>
       </c>
       <c r="D100">
         <v>130</v>
@@ -7185,21 +7249,21 @@
         <v>151.45500000000001</v>
       </c>
       <c r="H100">
-        <f>TRUNC((D100+40-G100)/10) * 80 - E100</f>
+        <f t="shared" si="19"/>
         <v>-20</v>
       </c>
       <c r="I100">
-        <f t="shared" ref="I100:I114" si="16">G100*H100</f>
+        <f t="shared" ref="I100:I114" si="20">G100*H100</f>
         <v>-3029.1000000000004</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
       <c r="B101" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D101">
         <v>130</v>
@@ -7214,21 +7278,21 @@
         <v>145.15600000000001</v>
       </c>
       <c r="H101">
-        <f>TRUNC((D101+40-G101)/10) * 80 - E101</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="26"/>
       <c r="B102" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D102">
         <v>125</v>
@@ -7243,21 +7307,21 @@
         <v>136.80000000000001</v>
       </c>
       <c r="H102">
-        <f>TRUNC((D102+40-G102)/10) * 80 - E102</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="26"/>
       <c r="B103" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D103">
         <v>125</v>
@@ -7272,21 +7336,21 @@
         <v>140.785</v>
       </c>
       <c r="H103">
-        <f>TRUNC((D103+40-G103)/10) * 80 - E103</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="26"/>
       <c r="B104" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D104">
         <v>125</v>
@@ -7301,21 +7365,21 @@
         <v>147.18100000000001</v>
       </c>
       <c r="H104">
-        <f>TRUNC((D104+40-G104)/10) * 80 - E104</f>
+        <f t="shared" si="19"/>
         <v>-20</v>
       </c>
       <c r="I104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-2943.6200000000003</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="27"/>
       <c r="B105" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D105">
         <v>130</v>
@@ -7330,20 +7394,20 @@
         <v>145</v>
       </c>
       <c r="H105">
-        <f>TRUNC((D105+40-G105)/10) * 80 - E105</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D106">
         <v>125</v>
@@ -7358,20 +7422,20 @@
         <v>146.15899999999999</v>
       </c>
       <c r="H106">
-        <f>TRUNC((D106+40-G106)/10) * 80 - E106</f>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="I106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4384.7699999999995</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D107">
         <v>125</v>
@@ -7386,11 +7450,11 @@
         <v>149.5</v>
       </c>
       <c r="H107">
-        <f>TRUNC((D107+40-G107)/10) * 80 - E107</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7399,10 +7463,10 @@
     </row>
     <row r="109" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D109">
         <v>125</v>
@@ -7414,20 +7478,20 @@
         <v>136.40100000000001</v>
       </c>
       <c r="H109">
-        <f>TRUNC((D109+40-G109)/10) * 80 - E109</f>
+        <f t="shared" ref="H109:H114" si="21">TRUNC((D109+40-G109)/10) * 80 - E109</f>
         <v>160</v>
       </c>
       <c r="I109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>21824.160000000003</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D110">
         <v>125</v>
@@ -7439,20 +7503,20 @@
         <v>139.511</v>
       </c>
       <c r="H110">
-        <f>TRUNC((D110+40-G110)/10) * 80 - E110</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>22321.759999999998</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D111">
         <v>125</v>
@@ -7464,20 +7528,20 @@
         <v>125.06100000000001</v>
       </c>
       <c r="H111">
-        <f>TRUNC((D111+40-G111)/10) * 80 - E111</f>
+        <f t="shared" si="21"/>
         <v>240</v>
       </c>
       <c r="I111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>30014.640000000003</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D112">
         <v>125</v>
@@ -7489,20 +7553,20 @@
         <v>137.48599999999999</v>
       </c>
       <c r="H112">
-        <f>TRUNC((D112+40-G112)/10) * 80 - E112</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="I112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>21997.759999999998</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D113">
         <v>125</v>
@@ -7514,20 +7578,20 @@
         <v>129.566</v>
       </c>
       <c r="H113">
-        <f>TRUNC((D113+40-G113)/10) * 80 - E113</f>
+        <f t="shared" si="21"/>
         <v>240</v>
       </c>
       <c r="I113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>31095.84</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D114">
         <v>125</v>
@@ -7539,11 +7603,11 @@
         <v>134.82599999999999</v>
       </c>
       <c r="H114">
-        <f>TRUNC((D114+40-G114)/10) * 80 - E114</f>
+        <f t="shared" si="21"/>
         <v>240</v>
       </c>
       <c r="I114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>32358.239999999998</v>
       </c>
     </row>
@@ -7560,10 +7624,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB2617F-E7B2-3448-BD12-7AD51884140D}">
-  <dimension ref="A3:E75"/>
+  <dimension ref="A3:E76"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7576,234 +7640,228 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>530</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>528</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>531</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>54</v>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>70</v>
       </c>
-      <c r="B22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>73</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="C34" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" t="s">
-        <v>97</v>
       </c>
       <c r="D34" t="s">
         <v>98</v>
@@ -7811,372 +7869,386 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" t="s">
-        <v>113</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>150</v>
-      </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
         <v>96</v>
       </c>
-      <c r="B45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" t="s">
-        <v>101</v>
-      </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="D46" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" t="s">
-        <v>112</v>
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
       <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>150</v>
-      </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>95</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>160</v>
-      </c>
-      <c r="B59" t="s">
-        <v>153</v>
+        <v>110</v>
+      </c>
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" t="s">
-        <v>125</v>
+      <c r="A60" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>133</v>
-      </c>
       <c r="B61" s="12" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" t="s">
-        <v>118</v>
+        <v>129</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
-      </c>
-      <c r="E62" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
-        <v>121</v>
+        <v>115</v>
+      </c>
+      <c r="E63" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
-      </c>
-      <c r="E64" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>80</v>
+      </c>
+      <c r="C65" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="12" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>159</v>
-      </c>
-      <c r="B69" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D70" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>134</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>137</v>
-      </c>
       <c r="C71" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" t="s">
-        <v>142</v>
+        <v>130</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
-      </c>
-      <c r="E72" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="E73" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" t="s">
         <v>147</v>
       </c>
-      <c r="B74" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" t="s">
-        <v>143</v>
-      </c>
-      <c r="D74" t="s">
-        <v>151</v>
-      </c>
-      <c r="E74" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>152</v>
+      <c r="E75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -8576,7 +8648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5A4E00-D05A-8A48-9385-B4D2154494C1}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -8593,48 +8665,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>457</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -8645,30 +8717,30 @@
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>463</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B9">
         <v>0.15</v>
@@ -8694,30 +8766,30 @@
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>463</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B11" s="22">
         <f>G9</f>
@@ -8753,33 +8825,33 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>478</v>
-      </c>
       <c r="E14" s="11" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B15" s="5">
         <v>1E-4</v>
@@ -8805,7 +8877,7 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B16" s="5">
         <f>G15</f>
@@ -8832,33 +8904,33 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>487</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B20" s="5">
         <v>2.9999999999999997E-4</v>
@@ -8885,4 +8957,200 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17F1301-BFA8-D14C-90FA-B2B9F3F81927}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1" s="9">
+        <f xml:space="preserve"> 6*24*(365*4+1)</f>
+        <v>210384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3" s="9">
+        <f>B3*$C$1</f>
+        <v>10519200</v>
+      </c>
+      <c r="D3" s="9">
+        <f>SUM($C$3:C3)</f>
+        <v>10519200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B4">
+        <f>B3/2</f>
+        <v>25</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" ref="C4:C11" si="0">B4*$C$1</f>
+        <v>5259600</v>
+      </c>
+      <c r="D4" s="9">
+        <f>SUM($C$3:C4)</f>
+        <v>15778800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B5">
+        <f>B4/2</f>
+        <v>12.5</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>2629800</v>
+      </c>
+      <c r="D5" s="9">
+        <f>SUM($C$3:C5)</f>
+        <v>18408600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B11" si="1">B5/2</f>
+        <v>6.25</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>1314900</v>
+      </c>
+      <c r="D6" s="9">
+        <f>SUM($C$3:C6)</f>
+        <v>19723500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>3.125</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="0"/>
+        <v>657450</v>
+      </c>
+      <c r="D7" s="9">
+        <f>SUM($C$3:C7)</f>
+        <v>20380950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>1.5625</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="0"/>
+        <v>328725</v>
+      </c>
+      <c r="D8" s="9">
+        <f>SUM($C$3:C8)</f>
+        <v>20709675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>0.78125</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="0"/>
+        <v>164362.5</v>
+      </c>
+      <c r="D9" s="9">
+        <f>SUM($C$3:C9)</f>
+        <v>20874037.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>0.390625</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="0"/>
+        <v>82181.25</v>
+      </c>
+      <c r="D10" s="9">
+        <f>SUM($C$3:C10)</f>
+        <v>20956218.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>0.1953125</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
+        <v>41090.625</v>
+      </c>
+      <c r="D11" s="9">
+        <f>SUM($C$3:C11)</f>
+        <v>20997309.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>